--- a/sampleExcels/LecturesFaculty.xlsx
+++ b/sampleExcels/LecturesFaculty.xlsx
@@ -27,12 +27,6 @@
     <t>Teaching Mode</t>
   </si>
   <si>
-    <t>No of classes alloted per week</t>
-  </si>
-  <si>
-    <t>% of classes taken as per documented record</t>
-  </si>
-  <si>
     <t> Year</t>
   </si>
   <si>
@@ -58,6 +52,12 @@
   </si>
   <si>
     <t>ddd</t>
+  </si>
+  <si>
+    <t>No of classes alloted</t>
+  </si>
+  <si>
+    <t>No of classes taken</t>
   </si>
 </sst>
 </file>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,44 +436,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3">
         <v>11</v>
@@ -482,7 +482,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -508,12 +508,11 @@
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
-      <formula1>0</formula1>
-      <formula2>100</formula2>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
       <formula1>"1994-95,1995-96,1996-97,1997-98,1998-99,1999-20,2000-01,2001-02,2002-03,2003-04,2004-05,2005-06,2006-07,2007-08,2008-09,2009-10,2010-11,2011-12,2012-13,2013-14,2014-15,2015-16,2016-17,2017-18,2018-19,2019-20,2020-21,2021-22,2022-23,"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576">
+      <formula1>-1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
